--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:21:23-04:00</t>
+    <t>2023-04-28T13:01:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2188,19 +2192,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -2211,10 +2215,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2225,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2234,19 +2238,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2296,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2331,10 +2335,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2345,7 +2349,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2354,16 +2358,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2414,19 +2418,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2449,10 +2453,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2463,28 +2467,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2534,19 +2538,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2569,10 +2573,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2583,7 +2587,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2595,16 +2599,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2630,13 +2634,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2654,19 +2658,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2689,21 +2693,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2715,16 +2719,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2774,19 +2778,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2798,7 +2802,7 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>38</v>
@@ -2809,14 +2813,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2835,16 +2839,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2894,7 +2898,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2918,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>38</v>
@@ -2929,14 +2933,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2955,16 +2959,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3014,7 +3018,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -3026,7 +3030,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3038,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>38</v>
@@ -3049,14 +3053,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3069,25 +3073,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -3136,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3148,7 +3152,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3160,7 +3164,7 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>38</v>
@@ -3171,10 +3175,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3194,20 +3198,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3256,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3268,22 +3272,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3291,14 +3295,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3314,20 +3318,20 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -3376,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3388,19 +3392,19 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -3411,14 +3415,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3434,19 +3438,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3496,7 +3500,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3508,19 +3512,19 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3531,10 +3535,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3542,34 +3546,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3594,11 +3598,11 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3616,34 +3620,34 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -3651,10 +3655,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3662,13 +3666,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>38</v>
@@ -3677,19 +3681,19 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3714,29 +3718,29 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3748,7 +3752,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3760,10 +3764,10 @@
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>38</v>
@@ -3771,26 +3775,26 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
@@ -3799,19 +3803,19 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3836,13 +3840,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3860,7 +3864,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3872,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3884,10 +3888,10 @@
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>38</v>
@@ -3895,10 +3899,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3909,7 +3913,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3921,13 +3925,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3978,13 +3982,13 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -4002,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -4013,14 +4017,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4039,16 +4043,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4086,19 +4090,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4110,7 +4114,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -4122,7 +4126,7 @@
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -4133,10 +4137,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4144,34 +4148,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4220,7 +4224,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4232,7 +4236,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -4241,10 +4245,10 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -4255,10 +4259,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4269,7 +4273,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4281,13 +4285,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4338,13 +4342,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -4362,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4373,14 +4377,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4399,16 +4403,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4446,19 +4450,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4470,7 +4474,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4482,7 +4486,7 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4493,10 +4497,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4504,41 +4508,41 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>38</v>
@@ -4580,19 +4584,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4601,10 +4605,10 @@
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4615,10 +4619,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4629,7 +4633,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4638,19 +4642,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4700,19 +4704,19 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -4721,10 +4725,10 @@
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4735,10 +4739,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4746,39 +4750,39 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>38</v>
@@ -4820,19 +4824,19 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4841,10 +4845,10 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4855,10 +4859,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4869,7 +4873,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4878,20 +4882,20 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4940,19 +4944,19 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -4961,10 +4965,10 @@
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4975,10 +4979,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4989,7 +4993,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4998,22 +5002,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -5062,19 +5066,19 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -5083,10 +5087,10 @@
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -5097,10 +5101,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5120,22 +5124,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -5184,19 +5188,19 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -5205,10 +5209,10 @@
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -5219,45 +5223,45 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5267,7 +5271,7 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>38</v>
@@ -5282,13 +5286,13 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -5306,45 +5310,45 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5352,34 +5356,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5428,34 +5432,34 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5463,10 +5467,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5486,19 +5490,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5548,7 +5552,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5560,7 +5564,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -5569,13 +5573,13 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5583,21 +5587,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5606,22 +5610,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5670,34 +5674,34 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>38</v>
@@ -5705,45 +5709,45 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5792,34 +5796,34 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -5827,10 +5831,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5841,7 +5845,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5850,19 +5854,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5912,19 +5916,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5933,13 +5937,13 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>38</v>
@@ -5947,10 +5951,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5970,20 +5974,20 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -6032,7 +6036,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6044,22 +6048,22 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -6067,10 +6071,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6081,31 +6085,31 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6130,70 +6134,70 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>38</v>
@@ -6203,31 +6207,31 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -6252,13 +6256,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6276,45 +6280,45 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6325,7 +6329,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -6337,13 +6341,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6394,13 +6398,13 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
@@ -6418,7 +6422,7 @@
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6429,14 +6433,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6455,16 +6459,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6502,19 +6506,19 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6526,7 +6530,7 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6538,7 +6542,7 @@
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6549,10 +6553,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6560,34 +6564,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6636,19 +6640,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6657,10 +6661,10 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6671,10 +6675,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6685,35 +6689,35 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>38</v>
@@ -6734,13 +6738,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6758,19 +6762,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6779,10 +6783,10 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6793,10 +6797,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6804,32 +6808,32 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6878,19 +6882,19 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6899,10 +6903,10 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6913,10 +6917,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6924,39 +6928,39 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>38</v>
@@ -6998,19 +7002,19 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -7019,10 +7023,10 @@
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7033,10 +7037,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7044,34 +7048,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -7096,11 +7100,11 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -7118,19 +7122,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -7139,10 +7143,10 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -7153,10 +7157,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7167,10 +7171,10 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -7179,19 +7183,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7216,13 +7220,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -7240,19 +7244,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7261,10 +7265,10 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7275,14 +7279,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7301,19 +7305,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7338,13 +7342,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7362,7 +7366,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7374,33 +7378,33 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7423,19 +7427,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7484,7 +7488,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7496,7 +7500,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -7505,10 +7509,10 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7519,10 +7523,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7533,7 +7537,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7545,16 +7549,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7580,13 +7584,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7604,45 +7608,45 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7653,7 +7657,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7665,19 +7669,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7702,13 +7706,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7726,19 +7730,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7747,10 +7751,10 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7761,10 +7765,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7775,7 +7779,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7787,16 +7791,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7846,45 +7850,45 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7895,7 +7899,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7907,16 +7911,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7966,45 +7970,45 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8027,19 +8031,19 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -8088,7 +8092,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8100,7 +8104,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -8109,10 +8113,10 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8123,10 +8127,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8137,7 +8141,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -8149,13 +8153,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8206,13 +8210,13 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
@@ -8230,7 +8234,7 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8241,14 +8245,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8267,16 +8271,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8326,7 +8330,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8338,7 +8342,7 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8350,7 +8354,7 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8361,14 +8365,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8381,25 +8385,25 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8448,7 +8452,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8460,7 +8464,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8472,7 +8476,7 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8483,10 +8487,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8497,7 +8501,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8509,13 +8513,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8566,19 +8570,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8587,10 +8591,10 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>38</v>
@@ -8601,10 +8605,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8615,7 +8619,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8627,13 +8631,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8684,19 +8688,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8705,10 +8709,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8719,10 +8723,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8733,7 +8737,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8745,19 +8749,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8782,13 +8786,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8806,31 +8810,31 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8841,10 +8845,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8867,19 +8871,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8904,13 +8908,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8928,7 +8932,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8940,19 +8944,19 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8963,10 +8967,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8977,7 +8981,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8989,17 +8993,17 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -9048,19 +9052,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -9072,7 +9076,7 @@
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -9083,10 +9087,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9097,7 +9101,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -9109,13 +9113,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9166,19 +9170,19 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9187,10 +9191,10 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -9201,10 +9205,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9224,19 +9228,19 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9286,7 +9290,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9298,7 +9302,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9307,10 +9311,10 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9321,10 +9325,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9344,19 +9348,19 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9406,7 +9410,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9418,7 +9422,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9427,10 +9431,10 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9441,10 +9445,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9458,28 +9462,28 @@
         <v>37</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9528,7 +9532,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9540,7 +9544,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9549,10 +9553,10 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -9563,10 +9567,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9577,7 +9581,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9589,13 +9593,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9646,13 +9650,13 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
@@ -9670,7 +9674,7 @@
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9681,14 +9685,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9707,16 +9711,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9766,7 +9770,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9778,7 +9782,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9790,7 +9794,7 @@
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>38</v>
@@ -9801,14 +9805,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9821,25 +9825,25 @@
         <v>38</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9888,7 +9892,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9900,7 +9904,7 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9912,7 +9916,7 @@
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9923,10 +9927,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9934,34 +9938,34 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9986,13 +9990,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -10010,34 +10014,34 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>38</v>
@@ -10045,10 +10049,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10059,31 +10063,31 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -10108,13 +10112,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -10132,45 +10136,45 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10181,10 +10185,10 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -10193,19 +10197,19 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10230,13 +10234,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10254,19 +10258,19 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -10275,10 +10279,10 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10289,14 +10293,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10315,19 +10319,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10352,13 +10356,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10376,7 +10380,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -10388,33 +10392,33 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10440,16 +10444,16 @@
         <v>39</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10498,7 +10502,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10510,7 +10514,7 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -10519,10 +10523,10 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-body-height</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-body-height</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -946,7 +946,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://voicecollab.ai/fhir/StructureDefinition/vbai-patient)
+    <t xml:space="preserve">Reference(https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-patient)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://voicecollab.ai/fhir/StructureDefinition/vbai-encounter)
+    <t xml:space="preserve">Reference(https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-encounter)
 </t>
   </si>
   <si>

--- a/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
